--- a/final_report/images/evaluation/figure_analysis.xlsx
+++ b/final_report/images/evaluation/figure_analysis.xlsx
@@ -8,25 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abraao/fourth_year/dissertation/final_report/images/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960A1FB-DEF0-D54E-9231-6A3F724EA11E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E96197-77CB-494F-902C-9A7F2CAA9AA2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16480" activeTab="1" xr2:uid="{06A655FB-7EC2-8E46-95CE-EA8589B8CB9E}"/>
+    <workbookView minimized="1" xWindow="5180" yWindow="-3160" windowWidth="28040" windowHeight="16480" activeTab="2" xr2:uid="{06A655FB-7EC2-8E46-95CE-EA8589B8CB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="time_to_vuln" sheetId="1" r:id="rId1"/>
     <sheet name="interaction volume" sheetId="2" r:id="rId2"/>
+    <sheet name="number replays" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'interaction volume'!$B$4:$B$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'interaction volume'!$C$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'interaction volume'!$C$4:$C$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'interaction volume'!$D$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'interaction volume'!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'interaction volume'!$E$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'interaction volume'!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'interaction volume'!$F$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'interaction volume'!$F$4:$F$7</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>Time to vulnerability</t>
   </si>
@@ -2613,6 +2603,2521 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normalised</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Interaction Volume per tool per web application scan </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'interaction volume'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gentoo (XSS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'interaction volume'!$B$11:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'interaction volume'!$C$11:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5C8-1743-A0A3-AC88477ECD28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'interaction volume'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gentoo (Headers)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'interaction volume'!$B$11:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'interaction volume'!$D$11:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5C8-1743-A0A3-AC88477ECD28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'interaction volume'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'interaction volume'!$B$11:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'interaction volume'!$E$11:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16447.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C5C8-1743-A0A3-AC88477ECD28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'interaction volume'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w3af</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'interaction volume'!$B$11:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'interaction volume'!$F$11:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C5C8-1743-A0A3-AC88477ECD28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1574998703"/>
+        <c:axId val="1575319327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1574998703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575319327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1575319327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Interaction Volume (KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574998703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of replays to first vulnerability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'number replays'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gentoo (XSS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number replays'!$B$4:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number replays'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4D4-8143-BAEB-C190B5CEA42C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'number replays'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gentoo (Headers)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number replays'!$B$4:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number replays'!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F4D4-8143-BAEB-C190B5CEA42C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'number replays'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number replays'!$B$4:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number replays'!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F4D4-8143-BAEB-C190B5CEA42C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'number replays'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w3af</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number replays'!$B$4:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number replays'!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F4D4-8143-BAEB-C190B5CEA42C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1131810495"/>
+        <c:axId val="1131812175"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1131810495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131812175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1131812175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of replays / attacks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131810495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scan completion to first vulnerability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'number replays'!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gentoo (XSS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number replays'!$B$40:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number replays'!$C$40:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-920D-AE46-9779-16131A8EC815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'number replays'!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gentoo (Headers)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number replays'!$B$40:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number replays'!$D$40:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-920D-AE46-9779-16131A8EC815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'number replays'!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number replays'!$B$40:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number replays'!$E$40:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-920D-AE46-9779-16131A8EC815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'number replays'!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w3af</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number replays'!$B$40:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Test Harness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DVWA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WebGoat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WackoPicko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number replays'!$F$40:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-920D-AE46-9779-16131A8EC815}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1569119903"/>
+        <c:axId val="1130924127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1569119903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1130924127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1130924127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Scan Completion (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569119903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2733,6 +5238,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3740,6 +6365,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4354,6 +8488,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>491251</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>251209</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>125604</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8AE83E-3ACC-8C4D-9182-FF07AC676CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA821D32-94F6-DC41-BC01-04E0C3D59698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B889779E-D204-7045-BB12-35007E34A6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4897,10 +9144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F290F6-5D01-594C-9059-5C21BE0B36FC}">
-  <dimension ref="B3:F7"/>
+  <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4978,6 +9225,245 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1310</v>
+      </c>
+      <c r="F11">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <f>65790/4</f>
+        <v>16447.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>1300</v>
+      </c>
+      <c r="E13">
+        <f>68000/4</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f>254400/5</f>
+        <v>50880</v>
+      </c>
+      <c r="F14">
+        <f>7000/5</f>
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0043267F-3392-E143-B021-4BD00A433800}">
+  <dimension ref="B3:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1621</v>
+      </c>
+      <c r="F4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>10854</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40">
+        <v>76</v>
+      </c>
+      <c r="F40">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E42">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D43">
+        <v>42.9</v>
+      </c>
+      <c r="E43">
+        <v>23.4</v>
+      </c>
+      <c r="F43">
+        <v>0.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
